--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.041521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.041521.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1615,12 +1615,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4329,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4983,12 +4983,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5747,12 +5747,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5823,12 +5823,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6127,12 +6127,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -8293,12 +8293,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8331,12 +8331,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8559,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8673,12 +8673,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8749,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8825,12 +8825,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9551,12 +9551,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9931,12 +9931,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9969,12 +9969,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10087,12 +10087,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10277,12 +10277,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10623,12 +10623,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10661,12 +10661,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10851,12 +10851,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11231,12 +11231,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12409,12 +12409,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12675,12 +12675,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12713,12 +12713,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12941,12 +12941,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13207,12 +13207,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13283,12 +13283,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13663,12 +13663,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13815,12 +13815,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14157,12 +14157,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14385,12 +14385,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14613,12 +14613,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14727,12 +14727,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15183,12 +15183,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15301,12 +15301,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15377,12 +15377,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16027,12 +16027,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16525,12 +16525,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16677,12 +16677,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17297,12 +17297,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17603,12 +17603,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18253,12 +18253,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18441,12 +18441,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19199,12 +19199,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19237,12 +19237,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19617,12 +19617,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19959,12 +19959,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19997,12 +19997,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20035,12 +20035,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20149,12 +20149,12 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20263,12 +20263,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20339,12 +20339,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20833,12 +20833,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20947,12 +20947,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21289,12 +21289,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21479,12 +21479,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21707,12 +21707,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22087,12 +22087,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22277,12 +22277,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22619,12 +22619,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23079,12 +23079,12 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23193,12 +23193,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23725,12 +23725,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23763,12 +23763,12 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24029,12 +24029,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24067,12 +24067,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24105,12 +24105,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24409,12 +24409,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25053,12 +25053,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25281,12 +25281,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25775,12 +25775,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26079,12 +26079,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26193,12 +26193,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26421,12 +26421,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26611,12 +26611,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26649,12 +26649,12 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26877,12 +26877,12 @@
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27523,12 +27523,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27675,12 +27675,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27789,12 +27789,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27941,12 +27941,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28891,12 +28891,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29237,12 +29237,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29579,12 +29579,12 @@
       <c r="H765" t="inlineStr"/>
       <c r="I765" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29617,12 +29617,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29731,12 +29731,12 @@
       <c r="H769" t="inlineStr"/>
       <c r="I769" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29959,12 +29959,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30111,12 +30111,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30149,12 +30149,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30605,12 +30605,12 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30719,12 +30719,12 @@
       <c r="H795" t="inlineStr"/>
       <c r="I795" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30985,12 +30985,12 @@
       <c r="H802" t="inlineStr"/>
       <c r="I802" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31403,12 +31403,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31857,12 +31857,12 @@
       <c r="H825" t="inlineStr"/>
       <c r="I825" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32007,12 +32007,12 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32045,12 +32045,12 @@
       <c r="H830" t="inlineStr"/>
       <c r="I830" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32159,12 +32159,12 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32197,12 +32197,12 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32349,12 +32349,12 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32843,12 +32843,12 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33075,12 +33075,12 @@
       <c r="H857" t="inlineStr"/>
       <c r="I857" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33341,12 +33341,12 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33417,12 +33417,12 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33455,12 +33455,12 @@
       <c r="H867" t="inlineStr"/>
       <c r="I867" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33493,12 +33493,12 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34253,12 +34253,12 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34329,12 +34329,12 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34785,12 +34785,12 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34975,12 +34975,12 @@
       <c r="H907" t="inlineStr"/>
       <c r="I907" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35469,12 +35469,12 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35699,12 +35699,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35889,12 +35889,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
